--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="6675" windowHeight="4695"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15636" windowHeight="5376"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:K16"/>
 </workbook>
 </file>
 
@@ -84,7 +85,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -126,6 +127,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -174,7 +178,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -209,7 +213,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -421,18 +425,18 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
     <col min="2" max="2" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -446,7 +450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>27</v>
       </c>
@@ -463,7 +467,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>28</v>
       </c>
@@ -480,7 +484,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>29</v>
       </c>
@@ -497,7 +501,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>30</v>
       </c>
@@ -514,7 +518,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>31</v>
       </c>
@@ -531,7 +535,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>32</v>
       </c>
@@ -548,7 +552,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>33</v>
       </c>
@@ -565,7 +569,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>34</v>
       </c>
@@ -582,7 +586,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>35</v>
       </c>
@@ -599,7 +603,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>36</v>
       </c>
@@ -616,7 +620,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>37</v>
       </c>
@@ -633,7 +637,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>38</v>
       </c>
@@ -650,7 +654,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>39</v>
       </c>
@@ -667,7 +671,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>40</v>
       </c>
@@ -684,7 +688,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>41</v>
       </c>
@@ -701,7 +705,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>42</v>
       </c>
@@ -718,7 +722,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>43</v>
       </c>
@@ -735,7 +739,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>44</v>
       </c>
@@ -752,7 +756,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>45</v>
       </c>
@@ -769,7 +773,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>46</v>
       </c>
@@ -786,7 +790,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>47</v>
       </c>
@@ -803,7 +807,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>48</v>
       </c>
@@ -832,7 +836,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -844,7 +848,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nevenac\git\HybridProfesionalnaOrijentacija\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15636" windowHeight="5376"/>
   </bookViews>
@@ -12,12 +17,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K16"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="22">
   <si>
     <t>poeni\prosek</t>
   </si>
@@ -80,12 +84,19 @@
   </si>
   <si>
     <t>srednje</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="167" formatCode="0.00000000000"/>
+    <numFmt numFmtId="168" formatCode="0.0000000000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -115,9 +126,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,7 +440,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -832,13 +847,428 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>27</v>
+      </c>
+      <c r="B2" s="4">
+        <v>23.999943132429099</v>
+      </c>
+      <c r="C2" s="4">
+        <v>23.999943132429099</v>
+      </c>
+      <c r="D2" s="4">
+        <v>23.999947122861499</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>28</v>
+      </c>
+      <c r="B3" s="4">
+        <v>23.999943132429099</v>
+      </c>
+      <c r="C3" s="4">
+        <v>23.999943132429099</v>
+      </c>
+      <c r="D3" s="4">
+        <v>23.999947122861499</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>29</v>
+      </c>
+      <c r="B4" s="5">
+        <v>29.999999999999901</v>
+      </c>
+      <c r="C4" s="4">
+        <v>31.066944631624501</v>
+      </c>
+      <c r="D4" s="4">
+        <v>30</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>30</v>
+      </c>
+      <c r="B5" s="2">
+        <v>34.999969250537198</v>
+      </c>
+      <c r="C5" s="4">
+        <v>34.999970601110498</v>
+      </c>
+      <c r="D5" s="4">
+        <v>34.999972064223499</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>31</v>
+      </c>
+      <c r="B6" s="4">
+        <v>34.999969250537198</v>
+      </c>
+      <c r="C6" s="4">
+        <v>34.999970601110498</v>
+      </c>
+      <c r="D6" s="4">
+        <v>34.999972064223499</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>32</v>
+      </c>
+      <c r="B7" s="4">
+        <v>34.999969250537198</v>
+      </c>
+      <c r="C7" s="4">
+        <v>34.999970601110498</v>
+      </c>
+      <c r="D7" s="4">
+        <v>34.999972064223499</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>33</v>
+      </c>
+      <c r="B8" s="4">
+        <v>34.999969250537198</v>
+      </c>
+      <c r="C8" s="4">
+        <v>34.999970601110498</v>
+      </c>
+      <c r="D8" s="4">
+        <v>34.999972064223499</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>34</v>
+      </c>
+      <c r="B9" s="4">
+        <v>34.999969250537198</v>
+      </c>
+      <c r="C9" s="4">
+        <v>34.999970601110498</v>
+      </c>
+      <c r="D9" s="4">
+        <v>34.999972064223499</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>35</v>
+      </c>
+      <c r="B10" s="4">
+        <v>34.999969250537198</v>
+      </c>
+      <c r="C10" s="4">
+        <v>34.999970601110498</v>
+      </c>
+      <c r="D10" s="4">
+        <v>34.999972064223499</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>36</v>
+      </c>
+      <c r="B11" s="4">
+        <v>34.999969250537198</v>
+      </c>
+      <c r="C11" s="4">
+        <v>34.999970601110498</v>
+      </c>
+      <c r="D11" s="4">
+        <v>34.999972064223499</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>37</v>
+      </c>
+      <c r="B12" s="4">
+        <v>34.999969250537198</v>
+      </c>
+      <c r="C12" s="4">
+        <v>34.999970601110498</v>
+      </c>
+      <c r="D12" s="4">
+        <v>34.999972064223499</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>38</v>
+      </c>
+      <c r="B13" s="4">
+        <v>34.999969250537198</v>
+      </c>
+      <c r="C13" s="4">
+        <v>34.999970601110498</v>
+      </c>
+      <c r="D13" s="4">
+        <v>34.999972064223499</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>39</v>
+      </c>
+      <c r="B14" s="4">
+        <v>34.999969250537198</v>
+      </c>
+      <c r="C14" s="4">
+        <v>34.999970601110498</v>
+      </c>
+      <c r="D14" s="4">
+        <v>34.999972064223499</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>40</v>
+      </c>
+      <c r="B15" s="4">
+        <v>34.999969250537198</v>
+      </c>
+      <c r="C15" s="4">
+        <v>34.999970601110498</v>
+      </c>
+      <c r="D15" s="4">
+        <v>34.999972064223499</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>41</v>
+      </c>
+      <c r="B16" s="3">
+        <v>38.115451090288701</v>
+      </c>
+      <c r="C16" s="3">
+        <v>38.177279964747903</v>
+      </c>
+      <c r="D16" s="3">
+        <v>38.238833042604703</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>42</v>
+      </c>
+      <c r="B17" s="3">
+        <v>44.235444012472101</v>
+      </c>
+      <c r="C17" s="3">
+        <v>44.353041296643397</v>
+      </c>
+      <c r="D17" s="3">
+        <v>44.467126345749797</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>43</v>
+      </c>
+      <c r="B18" s="3">
+        <v>44.235444012472101</v>
+      </c>
+      <c r="C18" s="3">
+        <v>44.353041296643397</v>
+      </c>
+      <c r="D18" s="3">
+        <v>44.467126345749797</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>44</v>
+      </c>
+      <c r="B19" s="3">
+        <v>44.235444012472101</v>
+      </c>
+      <c r="C19" s="3">
+        <v>44.353041296643397</v>
+      </c>
+      <c r="D19" s="3">
+        <v>44.467126345749797</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>45</v>
+      </c>
+      <c r="B20" s="3">
+        <v>44.235444012472101</v>
+      </c>
+      <c r="C20" s="3">
+        <v>44.353041296643397</v>
+      </c>
+      <c r="D20" s="3">
+        <v>44.467126345749797</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>46</v>
+      </c>
+      <c r="B21" s="3">
+        <v>44.235444012472101</v>
+      </c>
+      <c r="C21" s="3">
+        <v>44.353041296643397</v>
+      </c>
+      <c r="D21" s="3">
+        <v>44.467126345749797</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>47</v>
+      </c>
+      <c r="B22" s="3">
+        <v>44.235444012472101</v>
+      </c>
+      <c r="C22" s="3">
+        <v>44.353041296643397</v>
+      </c>
+      <c r="D22" s="3">
+        <v>44.467126345749797</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>48</v>
+      </c>
+      <c r="B23" s="3">
+        <v>44.235444012472101</v>
+      </c>
+      <c r="C23" s="3">
+        <v>44.353041296643397</v>
+      </c>
+      <c r="D23" s="3">
+        <v>44.467126345749797</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15636" windowHeight="5376"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15636" windowHeight="5376" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="31">
   <si>
     <t>poeni\prosek</t>
   </si>
@@ -87,6 +87,33 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>44.2</t>
+  </si>
+  <si>
+    <t>44.3</t>
+  </si>
+  <si>
+    <t>44.4</t>
+  </si>
+  <si>
+    <t>38.11</t>
+  </si>
+  <si>
+    <t>38.17</t>
+  </si>
+  <si>
+    <t>38.23</t>
+  </si>
+  <si>
+    <t>34.99996</t>
+  </si>
+  <si>
+    <t>34.999972</t>
+  </si>
+  <si>
+    <t>34.999970</t>
   </si>
 </sst>
 </file>
@@ -94,8 +121,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="167" formatCode="0.00000000000"/>
-    <numFmt numFmtId="168" formatCode="0.0000000000000"/>
+    <numFmt numFmtId="164" formatCode="0.00000000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000000000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -131,8 +158,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -850,19 +877,19 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="25" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.44140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="18.88671875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -876,7 +903,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+      <c r="A2" s="2">
         <v>27</v>
       </c>
       <c r="B2" s="4">
@@ -894,7 +921,7 @@
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>28</v>
       </c>
       <c r="B3" s="4">
@@ -912,7 +939,7 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>29</v>
       </c>
       <c r="B4" s="5">
@@ -930,7 +957,7 @@
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>30</v>
       </c>
       <c r="B5" s="2">
@@ -948,7 +975,7 @@
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>31</v>
       </c>
       <c r="B6" s="4">
@@ -966,7 +993,7 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <v>32</v>
       </c>
       <c r="B7" s="4">
@@ -984,7 +1011,7 @@
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>33</v>
       </c>
       <c r="B8" s="4">
@@ -1002,7 +1029,7 @@
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+      <c r="A9" s="2">
         <v>34</v>
       </c>
       <c r="B9" s="4">
@@ -1020,7 +1047,7 @@
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+      <c r="A10" s="2">
         <v>35</v>
       </c>
       <c r="B10" s="4">
@@ -1038,7 +1065,7 @@
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+      <c r="A11" s="2">
         <v>36</v>
       </c>
       <c r="B11" s="4">
@@ -1056,7 +1083,7 @@
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+      <c r="A12" s="2">
         <v>37</v>
       </c>
       <c r="B12" s="4">
@@ -1074,7 +1101,7 @@
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+      <c r="A13" s="2">
         <v>38</v>
       </c>
       <c r="B13" s="4">
@@ -1092,7 +1119,7 @@
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+      <c r="A14" s="2">
         <v>39</v>
       </c>
       <c r="B14" s="4">
@@ -1110,7 +1137,7 @@
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+      <c r="A15" s="2">
         <v>40</v>
       </c>
       <c r="B15" s="4">
@@ -1128,7 +1155,7 @@
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16">
+      <c r="A16" s="2">
         <v>41</v>
       </c>
       <c r="B16" s="3">
@@ -1145,7 +1172,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17">
+      <c r="A17" s="2">
         <v>42</v>
       </c>
       <c r="B17" s="3">
@@ -1162,7 +1189,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="A18" s="2">
         <v>43</v>
       </c>
       <c r="B18" s="3">
@@ -1179,7 +1206,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="A19" s="2">
         <v>44</v>
       </c>
       <c r="B19" s="3">
@@ -1196,7 +1223,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="A20" s="2">
         <v>45</v>
       </c>
       <c r="B20" s="3">
@@ -1213,7 +1240,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="A21" s="2">
         <v>46</v>
       </c>
       <c r="B21" s="3">
@@ -1230,7 +1257,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="A22" s="2">
         <v>47</v>
       </c>
       <c r="B22" s="3">
@@ -1250,7 +1277,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="A23" s="2">
         <v>48</v>
       </c>
       <c r="B23" s="3">
@@ -1274,12 +1301,409 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>31</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>32</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>34</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>36</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>37</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>38</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>39</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>40</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>41</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>42</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>43</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>44</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>45</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>46</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>47</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>48</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>